--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220418_110427.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220418_110427.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-18</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220418_110427.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220418_110427.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -757,7 +757,7 @@
     <t>SONY MUSIC</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>해외</t>
@@ -800,9 +800,6 @@
   </si>
   <si>
     <t>iMe KOREA</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>마크툽컴퍼니</t>
@@ -1274,7 +1271,7 @@
         <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1352,7 +1349,7 @@
         <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1378,7 +1375,7 @@
         <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1404,7 +1401,7 @@
         <v>238</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1430,7 +1427,7 @@
         <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1456,7 +1453,7 @@
         <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1508,7 +1505,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1534,7 +1531,7 @@
         <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1560,7 +1557,7 @@
         <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1638,7 +1635,7 @@
         <v>241</v>
       </c>
       <c r="H17" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1664,7 +1661,7 @@
         <v>237</v>
       </c>
       <c r="H18" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1690,7 +1687,7 @@
         <v>237</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1716,7 +1713,7 @@
         <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1742,7 +1739,7 @@
         <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1768,7 +1765,7 @@
         <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1794,7 +1791,7 @@
         <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1820,7 +1817,7 @@
         <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1846,7 +1843,7 @@
         <v>237</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1872,7 +1869,7 @@
         <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1898,7 +1895,7 @@
         <v>247</v>
       </c>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1924,7 +1921,7 @@
         <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1950,7 +1947,7 @@
         <v>237</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1976,7 +1973,7 @@
         <v>249</v>
       </c>
       <c r="H30" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2002,7 +1999,7 @@
         <v>233</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2054,7 +2051,7 @@
         <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2106,7 +2103,7 @@
         <v>249</v>
       </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2158,7 +2155,7 @@
         <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2210,7 +2207,7 @@
         <v>252</v>
       </c>
       <c r="H39" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2288,7 +2285,7 @@
         <v>254</v>
       </c>
       <c r="H42" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2314,7 +2311,7 @@
         <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2340,7 +2337,7 @@
         <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2366,7 +2363,7 @@
         <v>256</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2392,7 +2389,7 @@
         <v>248</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2418,7 +2415,7 @@
         <v>257</v>
       </c>
       <c r="H47" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2470,7 +2467,7 @@
         <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2548,7 +2545,7 @@
         <v>249</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2574,7 +2571,7 @@
         <v>259</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2600,7 +2597,7 @@
         <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2626,7 +2623,7 @@
         <v>260</v>
       </c>
       <c r="H55" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2652,7 +2649,7 @@
         <v>254</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2678,7 +2675,7 @@
         <v>239</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2756,7 +2753,7 @@
         <v>247</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2860,7 +2857,7 @@
         <v>261</v>
       </c>
       <c r="H64" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2883,10 +2880,10 @@
         <v>206</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H65" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2912,7 +2909,7 @@
         <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2938,7 +2935,7 @@
         <v>249</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2964,7 +2961,7 @@
         <v>248</v>
       </c>
       <c r="H68" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2987,10 +2984,10 @@
         <v>208</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H69" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3016,7 +3013,7 @@
         <v>249</v>
       </c>
       <c r="H70" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3039,10 +3036,10 @@
         <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H71" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3094,7 +3091,7 @@
         <v>247</v>
       </c>
       <c r="H73" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3120,7 +3117,7 @@
         <v>248</v>
       </c>
       <c r="H74" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3143,10 +3140,10 @@
         <v>211</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3169,10 +3166,10 @@
         <v>212</v>
       </c>
       <c r="G76" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H76" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3195,10 +3192,10 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3221,10 +3218,10 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H78" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3250,7 +3247,7 @@
         <v>236</v>
       </c>
       <c r="H79" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3276,7 +3273,7 @@
         <v>248</v>
       </c>
       <c r="H80" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3302,7 +3299,7 @@
         <v>255</v>
       </c>
       <c r="H81" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3325,10 +3322,10 @@
         <v>215</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H82" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3354,7 +3351,7 @@
         <v>250</v>
       </c>
       <c r="H83" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3380,7 +3377,7 @@
         <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3403,10 +3400,10 @@
         <v>218</v>
       </c>
       <c r="G85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H85" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3484,7 +3481,7 @@
         <v>247</v>
       </c>
       <c r="H88" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3507,10 +3504,10 @@
         <v>221</v>
       </c>
       <c r="G89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H89" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3536,7 +3533,7 @@
         <v>247</v>
       </c>
       <c r="H90" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3562,7 +3559,7 @@
         <v>249</v>
       </c>
       <c r="H91" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3611,10 +3608,10 @@
         <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H93" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3666,7 +3663,7 @@
         <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3692,7 +3689,7 @@
         <v>247</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3715,10 +3712,10 @@
         <v>227</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H97" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3767,10 +3764,10 @@
         <v>229</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H99" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3822,7 +3819,7 @@
         <v>237</v>
       </c>
       <c r="H101" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
